--- a/temp.xlsx
+++ b/temp.xlsx
@@ -4,18 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="&lt;2" sheetId="1" r:id="rId1"/>
-    <sheet name="2-7.8" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист4" sheetId="6" r:id="rId1"/>
+    <sheet name="&lt;2" sheetId="1" r:id="rId2"/>
+    <sheet name="2-7.8" sheetId="2" r:id="rId3"/>
+    <sheet name="&gt;7" sheetId="3" r:id="rId4"/>
+    <sheet name="&lt;2 (3)" sheetId="4" r:id="rId5"/>
+    <sheet name="2-7.8 (3)" sheetId="5" r:id="rId6"/>
   </sheets>
+  <definedNames>
+    <definedName name="EDGE_VALUES">Лист4!$A$2:$A$10</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="16">
   <si>
     <t>-</t>
   </si>
@@ -40,14 +47,43 @@
   <si>
     <t>2-7.8</t>
   </si>
+  <si>
+    <t>bigger than 2</t>
+  </si>
+  <si>
+    <t>-7,8=</t>
+  </si>
+  <si>
+    <t>---</t>
+  </si>
+  <si>
+    <t>DISPL_SW</t>
+  </si>
+  <si>
+    <t>TPC</t>
+  </si>
+  <si>
+    <t>MCTC</t>
+  </si>
+  <si>
+    <t>LCF</t>
+  </si>
+  <si>
+    <t>EDGE VALUES</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="175" formatCode="0.000000000"/>
+  <numFmts count="7">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
+    <numFmt numFmtId="166" formatCode="0.00000000"/>
+    <numFmt numFmtId="167" formatCode="0.0000000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.00000"/>
+    <numFmt numFmtId="170" formatCode="0.000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -72,12 +108,30 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -107,24 +161,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="175" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -133,11 +187,57 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -443,10 +543,478 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2926.49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>16.05</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>106.77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>64.796000000000006</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>12962.32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>18.72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>163.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>57.481000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="22">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="23"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>1.6251230000000001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <f>4-A5</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>C5</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="B7" s="18">
+        <v>2.36</v>
+      </c>
+      <c r="C7" s="18">
+        <v>64.69</v>
+      </c>
+      <c r="D7" s="12">
+        <f>C8-C7</f>
+        <v>-1.2000000000000455E-2</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18">
+        <v>2.38</v>
+      </c>
+      <c r="C8" s="18">
+        <v>64.677999999999997</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="5"/>
+      <c r="B10" s="4">
+        <f>D7</f>
+        <v>-1.2000000000000455E-2</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5">
+        <f>B8-B7</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <f>B10/D10</f>
+        <v>-0.60000000000002218</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="5"/>
+      <c r="B12" s="4">
+        <f>A7-B7</f>
+        <v>1.4876999999999807E-2</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="5">
+        <f>F10</f>
+        <v>-0.60000000000002218</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B12*D12</f>
+        <v>-8.9262000000002138E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5">
+        <f>F12</f>
+        <v>-8.9262000000002138E-3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="5">
+        <f>C7</f>
+        <v>64.69</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14+B14</f>
+        <v>64.681073799999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="5"/>
+      <c r="B16" s="18">
+        <v>64.796000000000006</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="5">
+        <f>F14</f>
+        <v>64.681073799999993</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <f>D16-B16</f>
+        <v>-0.11492620000001352</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5"/>
+      <c r="B18" s="18">
+        <f>B16</f>
+        <v>64.796000000000006</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D18" s="5">
+        <f>F16</f>
+        <v>-0.11492620000001352</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="10">
+        <f>B18-D18</f>
+        <v>64.91092620000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <f>A5</f>
+        <v>1.6251230000000001</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="6">
+        <f>4-A23</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f>C23</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="B25" s="18">
+        <f>B7</f>
+        <v>2.36</v>
+      </c>
+      <c r="C25" s="18">
+        <f>C7</f>
+        <v>64.69</v>
+      </c>
+      <c r="D25" s="12">
+        <f>C26-C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="18">
+        <f>B7</f>
+        <v>2.36</v>
+      </c>
+      <c r="C26" s="18">
+        <f>C7</f>
+        <v>64.69</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <f>B16</f>
+        <v>64.796000000000006</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f>C26</f>
+        <v>64.69</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <f>B28-D28</f>
+        <v>0.10600000000000875</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <f>B16</f>
+        <v>64.796000000000006</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <f>F28</f>
+        <v>0.10600000000000875</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10">
+        <f>B30+D30</f>
+        <v>64.902000000000015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="19">
+        <v>1.6351230000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>EDGE_VALUES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -454,99 +1022,91 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
-        <v>1.6351230000000001</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <f>4-A2</f>
-        <v>2.3648769999999999</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="1"/>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="1"/>
+      <c r="A3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <f>C2</f>
-        <v>2.3648769999999999</v>
-      </c>
-      <c r="B4" s="5">
-        <v>2.36</v>
-      </c>
-      <c r="C4" s="5">
-        <v>3507.52</v>
-      </c>
-      <c r="D4" s="7">
-        <f>C5-C4</f>
-        <v>32.449999999999818</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5">
-        <v>2.38</v>
-      </c>
-      <c r="C5" s="5">
-        <v>3539.97</v>
-      </c>
-      <c r="D5" s="7"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="A6" s="24">
+        <v>7.7899989999999999</v>
+      </c>
+      <c r="B6" s="18">
+        <v>7.78</v>
+      </c>
+      <c r="C6" s="18">
+        <v>18.72</v>
+      </c>
+      <c r="D6" s="13">
+        <f>C7-C6</f>
+        <v>0</v>
+      </c>
       <c r="E6" s="5"/>
       <c r="F6" s="1"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4">
-        <f>D4</f>
-        <v>32.449999999999818</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
-        <f>B5-B4</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
-        <f>B7/D7</f>
-        <v>1622.4999999999895</v>
-      </c>
+      <c r="A7" s="24"/>
+      <c r="B7" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="C7" s="18">
+        <v>18.72</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
+      <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
@@ -554,23 +1114,23 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5"/>
-      <c r="B9" s="4">
-        <f>A4-B4</f>
-        <v>4.8770000000000202E-3</v>
+      <c r="B9" s="15">
+        <f>D6</f>
+        <v>0</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D9" s="5">
-        <f>F7</f>
-        <v>1622.4999999999895</v>
+        <f>B7-B6</f>
+        <v>1.9999999999999574E-2</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="1">
-        <f>B9*D9</f>
-        <v>7.9129324999999815</v>
+      <c r="F9" s="17">
+        <f>B9/D9</f>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -583,28 +1143,28 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
+        <f>A6-B6</f>
+        <v>9.9989999999996471E-3</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="5">
         <f>F9</f>
-        <v>7.9129324999999815</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="5">
-        <f>C4</f>
-        <v>3507.52</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>3</v>
       </c>
       <c r="F11" s="1">
-        <f>D11+B11</f>
-        <v>3515.4329324999999</v>
+        <f>B11*D11</f>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
       <c r="E12" s="5"/>
@@ -613,21 +1173,22 @@
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="5"/>
       <c r="B13" s="5">
-        <v>2926.49</v>
+        <f>F11</f>
+        <v>0</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
-        <f>F11</f>
-        <v>3515.4329324999999</v>
+        <v>5</v>
+      </c>
+      <c r="D13" s="9">
+        <f>C6</f>
+        <v>18.72</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F13" s="1">
-        <f>D13-B13</f>
-        <v>588.9429325000001</v>
+      <c r="F13" s="16">
+        <f>D13+B13</f>
+        <v>18.72</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -640,24 +1201,11 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="5"/>
-      <c r="B15" s="5">
-        <f>B13</f>
-        <v>2926.49</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <f>F13</f>
-        <v>588.9429325000001</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10">
-        <f>B15-D15</f>
-        <v>2337.5470674999997</v>
-      </c>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
@@ -665,37 +1213,817 @@
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="1"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>2.0899000000000001</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5">
+        <v>5.4599900000000003</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="5">
+        <v>7.7899989999999999</v>
+      </c>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="D6:D7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="25">
+        <v>2</v>
+      </c>
+      <c r="B2" s="22">
+        <v>3</v>
+      </c>
+      <c r="C2" s="22">
+        <v>4</v>
+      </c>
+      <c r="D2" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="26"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>7.9619900000000001</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="6">
+        <f>7.8-(A5-7.8)</f>
+        <v>7.6380099999999995</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <f>C5</f>
+        <v>7.6380099999999995</v>
+      </c>
+      <c r="B7" s="18">
+        <v>7.62</v>
+      </c>
+      <c r="C7" s="18">
+        <v>12626.16</v>
+      </c>
+      <c r="D7" s="12">
+        <f>C8-C7</f>
+        <v>37.270000000000437</v>
+      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="12"/>
+      <c r="B8" s="18">
+        <v>7.64</v>
+      </c>
+      <c r="C8" s="18">
+        <v>12663.43</v>
+      </c>
+      <c r="D8" s="12"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6">
+        <f>D7</f>
+        <v>37.270000000000437</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <f>B8-B7</f>
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1">
+        <f>B10/D10</f>
+        <v>1863.5000000000616</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="6">
+        <f>A7-B7</f>
+        <v>1.8009999999999415E-2</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="7">
+        <f>F10</f>
+        <v>1863.5000000000616</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <f>B12*D12</f>
+        <v>33.561635000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="1"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7">
+        <f>F12</f>
+        <v>33.561635000000017</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="7">
+        <f>C7</f>
+        <v>12626.16</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" s="1">
+        <f>D14+B14</f>
+        <v>12659.721635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
+      <c r="F15" s="1"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="18">
+        <v>12962.32</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D16" s="7">
+        <f>F14</f>
+        <v>12659.721635</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <f>B16-D16</f>
+        <v>302.59836499999983</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="7"/>
+      <c r="B18" s="18">
+        <f>B16</f>
+        <v>12962.32</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="7">
+        <f>F16</f>
+        <v>302.59836499999983</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="16">
+        <f>B18+D18</f>
+        <v>13264.918365</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="7"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
+        <v>7.9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="6">
+        <f>7.8-(A23-7.8)</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="11">
+        <f>C23</f>
+        <v>7.6999999999999993</v>
+      </c>
+      <c r="B25" s="18">
+        <f>B7</f>
+        <v>7.62</v>
+      </c>
+      <c r="C25" s="18">
+        <f>C7</f>
+        <v>12626.16</v>
+      </c>
+      <c r="D25" s="12">
+        <f>C26-C25</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="18">
+        <f>B7</f>
+        <v>7.62</v>
+      </c>
+      <c r="C26" s="18">
+        <f>C7</f>
+        <v>12626.16</v>
+      </c>
+      <c r="D26" s="12"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B28" s="18">
+        <f>B16</f>
+        <v>12962.32</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="7">
+        <f>C26</f>
+        <v>12626.16</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <f>B28-D28</f>
+        <v>336.15999999999985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B30" s="18">
+        <f>B28</f>
+        <v>12962.32</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="7">
+        <f>F28</f>
+        <v>336.15999999999985</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="10">
+        <f>B30+D30</f>
+        <v>13298.48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7.9519900000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="4">
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="D25:D26"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B16">
+      <formula1>EDGE_VALUES</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F33"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1.6251230000000001</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="9">
+        <f>4-A2</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <f>C2</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="B4" s="18">
+        <v>2.36</v>
+      </c>
+      <c r="C4" s="18">
+        <v>16.22</v>
+      </c>
+      <c r="D4" s="12">
+        <f>C5-C4</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18">
+        <v>2.38</v>
+      </c>
+      <c r="C5" s="18">
+        <v>16.23</v>
+      </c>
+      <c r="D5" s="12"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="6">
+        <f>D4</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
+        <f>B5-B4</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <f>B7/D7</f>
+        <v>0.50000000000007772</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6">
+        <f>A4-B4</f>
+        <v>1.4876999999999807E-2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="7">
+        <f>F7</f>
+        <v>0.50000000000007772</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1">
+        <f>B9*D9</f>
+        <v>7.4385000000010597E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7">
+        <f>F9</f>
+        <v>7.4385000000010597E-3</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="7">
+        <f>C4</f>
+        <v>16.22</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <f>D11+B11</f>
+        <v>16.227438500000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7"/>
+      <c r="B13" s="18">
+        <v>16.05</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="14">
+        <f>F11</f>
+        <v>16.227438500000002</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" s="1">
+        <f>D13-B13</f>
+        <v>0.17743850000000094</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
+      <c r="F14" s="1"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="7"/>
+      <c r="B15" s="18">
+        <f>B13</f>
+        <v>16.05</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="7">
+        <f>F13</f>
+        <v>0.17743850000000094</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" s="10">
+        <f>B15-D15</f>
+        <v>15.8725615</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="7"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
+        <f>A2</f>
+        <v>1.6251230000000001</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" s="6">
+        <f>4-A20</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="D20" s="7"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <f>C20</f>
+        <v>2.3748769999999997</v>
+      </c>
+      <c r="B22" s="18">
+        <f>B4</f>
+        <v>2.36</v>
+      </c>
+      <c r="C22" s="18">
+        <f>C4</f>
+        <v>16.22</v>
+      </c>
+      <c r="D22" s="12">
+        <f>C23-C22</f>
+        <v>1.0000000000001563E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="12"/>
+      <c r="B23" s="18">
+        <f>B5</f>
+        <v>2.38</v>
+      </c>
+      <c r="C23" s="18">
+        <f>C5</f>
+        <v>16.23</v>
+      </c>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="18">
+        <v>16.05</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7">
+        <f>C23</f>
+        <v>16.23</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="1">
+        <f>B25-D25</f>
+        <v>-0.17999999999999972</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B27" s="18">
+        <v>16.05</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="7">
+        <f>F25</f>
+        <v>-0.17999999999999972</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="10">
+        <f>B27+D27</f>
+        <v>15.870000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="19">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="19">
+        <v>1.6351230000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="D22:D23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="A4" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +2031,7 @@
     <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="13.7109375" customWidth="1"/>
     <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
@@ -714,187 +2043,193 @@
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
-        <v>2.0899000000000001</v>
-      </c>
-      <c r="B4" s="5">
+      <c r="A4" s="11">
+        <v>2.08</v>
+      </c>
+      <c r="B4" s="18">
+        <v>7.78</v>
+      </c>
+      <c r="C4" s="18">
+        <v>12924.88</v>
+      </c>
+      <c r="D4" s="13">
+        <f>C5-C4</f>
+        <v>37.440000000000509</v>
+      </c>
+      <c r="E4" s="7"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="18">
+        <v>7.8</v>
+      </c>
+      <c r="C5" s="18">
+        <v>12962.32</v>
+      </c>
+      <c r="D5" s="13"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="7"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="7"/>
+      <c r="B7" s="15">
+        <f>D4</f>
+        <v>37.440000000000509</v>
+      </c>
+      <c r="C7" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="5">
-        <v>2926.49</v>
-      </c>
-      <c r="D4" s="9">
-        <f>C5-C4</f>
-        <v>32.110000000000127</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="5">
-        <v>2.02</v>
-      </c>
-      <c r="C5" s="5">
-        <v>2958.6</v>
-      </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="4">
-        <f>D4</f>
-        <v>32.110000000000127</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="5">
+      <c r="D7" s="7">
         <f>B5-B4</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F7" s="1">
+        <v>1.9999999999999574E-2</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="17">
         <f>B7/D7</f>
-        <v>1605.500000000005</v>
+        <v>1872.0000000000655</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
+      <c r="A8" s="7"/>
+      <c r="B8" s="6"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
-      <c r="B9" s="4">
+      <c r="A9" s="7"/>
+      <c r="B9" s="6">
         <f>A4-B4</f>
-        <v>8.9900000000000091E-2</v>
-      </c>
-      <c r="C9" s="5" t="s">
+        <v>-5.7</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="7">
         <f>F7</f>
-        <v>1605.500000000005</v>
-      </c>
-      <c r="E9" s="5" t="s">
+        <v>1872.0000000000655</v>
+      </c>
+      <c r="E9" s="7" t="s">
         <v>3</v>
       </c>
       <c r="F9" s="1">
         <f>B9*D9</f>
-        <v>144.3344500000006</v>
+        <v>-10670.400000000374</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7">
         <f>F9</f>
-        <v>144.3344500000006</v>
-      </c>
-      <c r="C11" s="5" t="s">
+        <v>-10670.400000000374</v>
+      </c>
+      <c r="C11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="9">
         <f>C4</f>
-        <v>2926.49</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="10">
+        <v>12924.88</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" s="16">
         <f>D11+B11</f>
-        <v>3070.8244500000005</v>
+        <v>2254.4799999996249</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
+      <c r="A12" s="7"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
       <c r="F12" s="1"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
       <c r="F13" s="1"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
+      <c r="A14" s="7"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="A16" s="7">
+        <v>2.0899000000000001</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
+      <c r="A17" s="7">
+        <v>5.4599900000000003</v>
+      </c>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
+      <c r="A18" s="7">
+        <v>7.7899989999999999</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
